--- a/biology/Zoologie/Astianax_bimaculatus/Astianax_bimaculatus.xlsx
+++ b/biology/Zoologie/Astianax_bimaculatus/Astianax_bimaculatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Astyanax bimaculatus est une espèce de poissons téléostéens de la famille des Characidae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce taxon se rencontre dans les pays suivants[1] : Brésil, Guyana, Guyane, Suriname.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon se rencontre dans les pays suivants : Brésil, Guyana, Guyane, Suriname.
 </t>
         </is>
       </c>
@@ -568,11 +584,13 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Astyanax bimaculatus (Linnaeus, 1758)[2].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Astyanax biponctué[3].
-Astyanax bimaculatus a pour synonymes[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Astyanax bimaculatus (Linnaeus, 1758).
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Astyanax biponctué.
+Astyanax bimaculatus a pour synonymes :
 Astyanax bimaculatus borealis Eigenmann, 1908
 Astyanax bimaculatus incaicus Tortonese, 1942
 Astyanax fasciatus bimaculatus (Linnaeus, 1758)
@@ -587,7 +605,7 @@
 Tetragonopterus orientalis Cope, 1870
 Tetragonopterus vittatus Castelnau, 1855
 Tetragonopterus wappi Valenciennes, 1850
-En 1878, Pieter Bleeker a tenté d'identifier l'espèce Chaetodon festivus, décrite par Julien Desjardins en 1834, comme étant en fait selon lui Tetragonopterus maculatus[4].
+En 1878, Pieter Bleeker a tenté d'identifier l'espèce Chaetodon festivus, décrite par Julien Desjardins en 1834, comme étant en fait selon lui Tetragonopterus maculatus.
 </t>
         </is>
       </c>
@@ -616,7 +634,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Linnaeus, C. (1758). Systema Naturae per regna tria naturae, secundum classes, ordines, genera, species, cum characteribus, differentiis, synonymis, locis. Editio decima, reformata [10th revised edition], vol. 1: 824 pp. Laurentius Salvius: Holmiae.  lire</t>
         </is>
